--- a/InputData/elec/NGEpUO/Nonfuel GHG Emis per Unit Output.xlsx
+++ b/InputData/elec/NGEpUO/Nonfuel GHG Emis per Unit Output.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
   <si>
     <t>coal</t>
   </si>
   <si>
-    <t>natural gas</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -153,6 +150,36 @@
   </si>
   <si>
     <t>Nonfuel GHG Emis / Unit Output (metric tons/MWh)</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>unspecified</t>
+  </si>
+  <si>
+    <t>Geothermal Results - Life Cycle Assessment Review</t>
+  </si>
+  <si>
+    <t>http://www.nrel.gov/analysis/sustain_lca_geo.html</t>
+  </si>
+  <si>
+    <t>web page text, paragraph 2</t>
+  </si>
+  <si>
+    <t>Assumed to be same as coal</t>
+  </si>
+  <si>
+    <t>Assumed to be the same as natural gas nonpeaker</t>
   </si>
 </sst>
 </file>
@@ -176,12 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -192,6 +213,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,9 +251,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -236,13 +265,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -250,6 +288,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -545,313 +588,677 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="36.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="3" width="50.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="74.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2">
         <v>26</v>
       </c>
-      <c r="C4" s="2">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="D4" s="2">
-        <v>14.35</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="F4" s="2">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2">
-        <f>G4</f>
-        <v>45</v>
-      </c>
-      <c r="I4" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <f>B4/1000</f>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:I5" si="0">C4/1000</f>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2">
+        <f>B11/1000</f>
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2">
+        <v>14.35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2">
+        <f>B18/1000</f>
         <v>1.435E-2</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2">
+        <f>B25/1000</f>
         <v>6.6E-3</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B32/1000</f>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2">
+        <f>B39/1000</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H5" s="2">
-        <f>G5</f>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="2">
+        <f>B39</f>
+        <v>45</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="2">
+        <f>B40</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I5" s="2">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="2">
+        <v>46</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="2">
+        <f>B53/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="2">
+        <v>50</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="2">
+        <f>B60/1000</f>
+        <v>0.05</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="D63" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="2">
+        <f>B4</f>
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1999</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2012</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2012</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2012</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="D67" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="2">
+        <f>B5</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="B74" s="2">
+        <f>B11</f>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
+      <c r="B75" s="2">
+        <f>B12</f>
+        <v>6.8599999999999994E-2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1"/>
-    <hyperlink ref="F10" r:id="rId2"/>
-    <hyperlink ref="C10" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="G10" r:id="rId6"/>
-    <hyperlink ref="I10" r:id="rId7"/>
+    <hyperlink ref="D21" r:id="rId1"/>
+    <hyperlink ref="D35" r:id="rId2"/>
+    <hyperlink ref="D14" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D28" r:id="rId5"/>
+    <hyperlink ref="D42" r:id="rId6"/>
+    <hyperlink ref="D56" r:id="rId7"/>
+    <hyperlink ref="D63" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -860,19 +1267,19 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>45</v>
+      <c r="B1" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,65 +1293,92 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <f>About!C5</f>
+        <f>About!B12</f>
         <v>6.8599999999999994E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <f>About!D5</f>
+        <f>About!B19</f>
         <v>1.435E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <f>About!E5</f>
+        <f>About!B26</f>
         <v>6.6E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <f>About!F5</f>
+        <f>About!B33</f>
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7">
-        <f>About!G5</f>
+        <f>About!B40</f>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <f>About!H5</f>
+        <f>About!B47</f>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <f>About!I5</f>
+        <f>About!B54</f>
         <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="10">
+        <f>About!B61</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <f>About!B68</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <f>About!B75</f>
+        <v>6.8599999999999994E-2</v>
       </c>
     </row>
   </sheetData>
